--- a/学习Study/商业计划.xlsx
+++ b/学习Study/商业计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商业画布" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,10 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习动力，不知如何激发学习兴趣，和长期学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空雨伞的思维方式找到问题并解决问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,6 +472,18 @@
   </si>
   <si>
     <t>思维方式重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力不足，无法长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低门槛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2125,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2359,7 +2367,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2498,7 +2506,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2765,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2888,7 +2896,7 @@
     </row>
     <row r="11" spans="11:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="6"/>
       <c r="R11" s="12" t="s">
@@ -3073,10 +3081,12 @@
         <v>94</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
+      <c r="T23" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="U23" t="s">
         <v>90</v>
       </c>
@@ -3116,21 +3126,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="11:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="R28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="U28" t="s">
-        <v>89</v>
-      </c>
-    </row>
+    <row r="28" spans="11:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="11:22" x14ac:dyDescent="0.4">
       <c r="K29" s="10"/>
       <c r="L29" s="20" t="s">
         <v>87</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="U29" t="s">
         <v>99</v>
@@ -3184,14 +3187,22 @@
         <v>106</v>
       </c>
     </row>
+    <row r="35" spans="11:21" x14ac:dyDescent="0.4">
+      <c r="R35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="36" spans="11:21" x14ac:dyDescent="0.4">
       <c r="R36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="11:21" x14ac:dyDescent="0.4">
       <c r="R37" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
